--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3428465</v>
+        <v>0.9729185</v>
       </c>
       <c r="H2">
-        <v>2.685693</v>
+        <v>1.945837</v>
       </c>
       <c r="I2">
-        <v>0.05603398604231225</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J2">
-        <v>0.03851650726405265</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.100457</v>
       </c>
       <c r="O2">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P2">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q2">
-        <v>0.0449661102835</v>
+        <v>0.03257882458483334</v>
       </c>
       <c r="R2">
-        <v>0.269796661701</v>
+        <v>0.195472947509</v>
       </c>
       <c r="S2">
-        <v>0.0001782522045497888</v>
+        <v>0.0001214688464297786</v>
       </c>
       <c r="T2">
-        <v>0.000122747073581633</v>
+        <v>8.332665960879991E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3428465</v>
+        <v>0.9729185</v>
       </c>
       <c r="H3">
-        <v>2.685693</v>
+        <v>1.945837</v>
       </c>
       <c r="I3">
-        <v>0.05603398604231225</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J3">
-        <v>0.03851650726405265</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N3">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="O3">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P3">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q3">
-        <v>6.2940491159175</v>
+        <v>2.263680069071166</v>
       </c>
       <c r="R3">
-        <v>37.76429469550499</v>
+        <v>13.582080414427</v>
       </c>
       <c r="S3">
-        <v>0.02495052659399421</v>
+        <v>0.008440040737509095</v>
       </c>
       <c r="T3">
-        <v>0.01718129731673565</v>
+        <v>0.005789800613817409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3428465</v>
+        <v>0.9729185</v>
       </c>
       <c r="H4">
-        <v>2.685693</v>
+        <v>1.945837</v>
       </c>
       <c r="I4">
-        <v>0.05603398604231225</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J4">
-        <v>0.03851650726405265</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0567275</v>
+        <v>0.1031065</v>
       </c>
       <c r="N4">
-        <v>0.113455</v>
+        <v>0.206213</v>
       </c>
       <c r="O4">
-        <v>0.005389122887534366</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P4">
-        <v>0.00359921412743334</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q4">
-        <v>0.07617632482874999</v>
+        <v>0.10031422132025</v>
       </c>
       <c r="R4">
-        <v>0.304705299315</v>
+        <v>0.401256885281</v>
       </c>
       <c r="S4">
-        <v>0.0003019740366604061</v>
+        <v>0.0003740175681459321</v>
       </c>
       <c r="T4">
-        <v>0.0001386291570841671</v>
+        <v>0.0001710487119654126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3428465</v>
+        <v>0.9729185</v>
       </c>
       <c r="H5">
-        <v>2.685693</v>
+        <v>1.945837</v>
       </c>
       <c r="I5">
-        <v>0.05603398604231225</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J5">
-        <v>0.03851650726405265</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.748987333333333</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N5">
-        <v>17.246962</v>
+        <v>3.893441</v>
       </c>
       <c r="O5">
-        <v>0.5461548493801388</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P5">
-        <v>0.5471377135049664</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q5">
-        <v>7.720007519110998</v>
+        <v>1.262666925852833</v>
       </c>
       <c r="R5">
-        <v>46.32004511466599</v>
+        <v>7.576001555117</v>
       </c>
       <c r="S5">
-        <v>0.03060323320710785</v>
+        <v>0.004707803208461368</v>
       </c>
       <c r="T5">
-        <v>0.02107383371665119</v>
+        <v>0.003229515443562375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8368026666666667</v>
+        <v>0.9729185</v>
       </c>
       <c r="H6">
-        <v>2.510408</v>
+        <v>1.945837</v>
       </c>
       <c r="I6">
-        <v>0.03491790680779201</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J6">
-        <v>0.03600268086029784</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03348566666666667</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N6">
-        <v>0.100457</v>
+        <v>8.410385</v>
       </c>
       <c r="O6">
-        <v>0.00318114446498929</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P6">
-        <v>0.003186869275039187</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q6">
-        <v>0.02802089516177778</v>
+        <v>2.727539719540833</v>
       </c>
       <c r="R6">
-        <v>0.252188056456</v>
+        <v>16.365238317245</v>
       </c>
       <c r="S6">
-        <v>0.0001110789059706194</v>
+        <v>0.01016952292005847</v>
       </c>
       <c r="T6">
-        <v>0.0001147358374527246</v>
+        <v>0.0069762115937561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>2.510408</v>
       </c>
       <c r="I7">
-        <v>0.03491790680779201</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J7">
-        <v>0.03600268086029784</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>4.687095</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N7">
-        <v>14.061285</v>
+        <v>0.100457</v>
       </c>
       <c r="O7">
-        <v>0.4452748832673376</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P7">
-        <v>0.446076203092561</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q7">
-        <v>3.92217359492</v>
+        <v>0.02802089516177778</v>
       </c>
       <c r="R7">
-        <v>35.29956235428</v>
+        <v>0.252188056456</v>
       </c>
       <c r="S7">
-        <v>0.01554806687777936</v>
+        <v>0.0001044747885967453</v>
       </c>
       <c r="T7">
-        <v>0.01605993917931487</v>
+        <v>0.0001075033072632539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.510408</v>
       </c>
       <c r="I8">
-        <v>0.03491790680779201</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J8">
-        <v>0.03600268086029784</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0567275</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N8">
-        <v>0.113455</v>
+        <v>6.980071</v>
       </c>
       <c r="O8">
-        <v>0.005389122887534366</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P8">
-        <v>0.00359921412743334</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q8">
-        <v>0.04746972327333333</v>
+        <v>1.946980675440889</v>
       </c>
       <c r="R8">
-        <v>0.28481833964</v>
+        <v>17.522826078968</v>
       </c>
       <c r="S8">
-        <v>0.000188176890762664</v>
+        <v>0.00725923969574318</v>
       </c>
       <c r="T8">
-        <v>0.0001295813575778579</v>
+        <v>0.00746967077886387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>2.510408</v>
       </c>
       <c r="I9">
-        <v>0.03491790680779201</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J9">
-        <v>0.03600268086029784</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.748987333333333</v>
+        <v>0.1031065</v>
       </c>
       <c r="N9">
-        <v>17.246962</v>
+        <v>0.206213</v>
       </c>
       <c r="O9">
-        <v>0.5461548493801388</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P9">
-        <v>0.5471377135049664</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q9">
-        <v>4.810767931166222</v>
+        <v>0.08627979415066667</v>
       </c>
       <c r="R9">
-        <v>43.296911380496</v>
+        <v>0.5176787649039999</v>
       </c>
       <c r="S9">
-        <v>0.01907058413327937</v>
+        <v>0.0003216907669087367</v>
       </c>
       <c r="T9">
-        <v>0.01969842448595237</v>
+        <v>0.0002206772997469302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.339706333333333</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H10">
-        <v>22.019119</v>
+        <v>2.510408</v>
       </c>
       <c r="I10">
-        <v>0.3062695566743264</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J10">
-        <v>0.3157842526720439</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03348566666666667</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N10">
-        <v>0.100457</v>
+        <v>3.893441</v>
       </c>
       <c r="O10">
-        <v>0.00318114446498929</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P10">
-        <v>0.003186869275039187</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q10">
-        <v>0.2457749597092223</v>
+        <v>1.086013937103111</v>
       </c>
       <c r="R10">
-        <v>2.211974637383</v>
+        <v>9.774125433928001</v>
       </c>
       <c r="S10">
-        <v>0.0009742877050092571</v>
+        <v>0.00404915959454195</v>
       </c>
       <c r="T10">
-        <v>0.001006363132381748</v>
+        <v>0.004166536768312318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.339706333333333</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H11">
-        <v>22.019119</v>
+        <v>2.510408</v>
       </c>
       <c r="I11">
-        <v>0.3062695566743264</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J11">
-        <v>0.3157842526720439</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.687095</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N11">
-        <v>14.061285</v>
+        <v>8.410385</v>
       </c>
       <c r="O11">
-        <v>0.4452748832673376</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P11">
-        <v>0.446076203092561</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q11">
-        <v>34.401900856435</v>
+        <v>2.345944198564445</v>
       </c>
       <c r="R11">
-        <v>309.617107707915</v>
+        <v>21.11349778708</v>
       </c>
       <c r="S11">
-        <v>0.1363741410964999</v>
+        <v>0.008746759259108254</v>
       </c>
       <c r="T11">
-        <v>0.1408638404283672</v>
+        <v>0.009000310609089079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.339706333333333</v>
+        <v>7.275335000000001</v>
       </c>
       <c r="H12">
-        <v>22.019119</v>
+        <v>21.826005</v>
       </c>
       <c r="I12">
-        <v>0.3062695566743264</v>
+        <v>0.1780688566639937</v>
       </c>
       <c r="J12">
-        <v>0.3157842526720439</v>
+        <v>0.1822714156546441</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0567275</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N12">
-        <v>0.113455</v>
+        <v>0.100457</v>
       </c>
       <c r="O12">
-        <v>0.005389122887534366</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P12">
-        <v>0.00359921412743334</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q12">
-        <v>0.4163631910241666</v>
+        <v>0.2436194426983334</v>
       </c>
       <c r="R12">
-        <v>2.498179146145</v>
+        <v>2.192574984285</v>
       </c>
       <c r="S12">
-        <v>0.001650524277628616</v>
+        <v>0.0009083253631626837</v>
       </c>
       <c r="T12">
-        <v>0.0011365751434382</v>
+        <v>0.0009346559291733916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.339706333333333</v>
+        <v>7.275335000000001</v>
       </c>
       <c r="H13">
-        <v>22.019119</v>
+        <v>21.826005</v>
       </c>
       <c r="I13">
-        <v>0.3062695566743264</v>
+        <v>0.1780688566639937</v>
       </c>
       <c r="J13">
-        <v>0.3157842526720439</v>
+        <v>0.1822714156546441</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,95 +1243,95 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.748987333333333</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N13">
-        <v>17.246962</v>
+        <v>6.980071</v>
       </c>
       <c r="O13">
-        <v>0.5461548493801388</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P13">
-        <v>0.5471377135049664</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q13">
-        <v>42.19587874071977</v>
+        <v>16.92745161626167</v>
       </c>
       <c r="R13">
-        <v>379.762908666478</v>
+        <v>152.347064546355</v>
       </c>
       <c r="S13">
-        <v>0.1672706035951886</v>
+        <v>0.06311332735375649</v>
       </c>
       <c r="T13">
-        <v>0.1727774739678567</v>
+        <v>0.06494285859821858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.275335000000001</v>
+      </c>
+      <c r="H14">
+        <v>21.826005</v>
+      </c>
+      <c r="I14">
+        <v>0.1780688566639937</v>
+      </c>
+      <c r="J14">
+        <v>0.1822714156546441</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.8233635</v>
-      </c>
-      <c r="H14">
-        <v>1.646727</v>
-      </c>
-      <c r="I14">
-        <v>0.03435712039071433</v>
-      </c>
-      <c r="J14">
-        <v>0.02361631521451321</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03348566666666667</v>
+        <v>0.1031065</v>
       </c>
       <c r="N14">
-        <v>0.100457</v>
+        <v>0.206213</v>
       </c>
       <c r="O14">
-        <v>0.00318114446498929</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P14">
-        <v>0.003186869275039187</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q14">
-        <v>0.0275708757065</v>
+        <v>0.7501343281775</v>
       </c>
       <c r="R14">
-        <v>0.165425254239</v>
+        <v>4.500805969065</v>
       </c>
       <c r="S14">
-        <v>0.0001092949633638916</v>
+        <v>0.002796845886008936</v>
       </c>
       <c r="T14">
-        <v>7.526210934677264E-05</v>
+        <v>0.001918613965404428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8233635</v>
+        <v>7.275335000000001</v>
       </c>
       <c r="H15">
-        <v>1.646727</v>
+        <v>21.826005</v>
       </c>
       <c r="I15">
-        <v>0.03435712039071433</v>
+        <v>0.1780688566639937</v>
       </c>
       <c r="J15">
-        <v>0.02361631521451321</v>
+        <v>0.1822714156546441</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.687095</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N15">
-        <v>14.061285</v>
+        <v>3.893441</v>
       </c>
       <c r="O15">
-        <v>0.4452748832673376</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P15">
-        <v>0.446076203092561</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q15">
-        <v>3.8591829440325</v>
+        <v>9.442029192578335</v>
       </c>
       <c r="R15">
-        <v>23.155097664195</v>
+        <v>84.97826273320501</v>
       </c>
       <c r="S15">
-        <v>0.01529836277137719</v>
+        <v>0.03520422877726273</v>
       </c>
       <c r="T15">
-        <v>0.01053467622192713</v>
+        <v>0.03622473013863423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8233635</v>
+        <v>7.275335000000001</v>
       </c>
       <c r="H16">
-        <v>1.646727</v>
+        <v>21.826005</v>
       </c>
       <c r="I16">
-        <v>0.03435712039071433</v>
+        <v>0.1780688566639937</v>
       </c>
       <c r="J16">
-        <v>0.02361631521451321</v>
+        <v>0.1822714156546441</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0567275</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N16">
-        <v>0.113455</v>
+        <v>8.410385</v>
       </c>
       <c r="O16">
-        <v>0.005389122887534366</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P16">
-        <v>0.00359921412743334</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q16">
-        <v>0.04670735294625</v>
+        <v>20.39612278465834</v>
       </c>
       <c r="R16">
-        <v>0.186829411785</v>
+        <v>183.565105061925</v>
       </c>
       <c r="S16">
-        <v>0.0001851547438473723</v>
+        <v>0.07604612928380289</v>
       </c>
       <c r="T16">
-        <v>8.500017535799488E-05</v>
+        <v>0.07825055702321347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8233635</v>
+        <v>1.8531425</v>
       </c>
       <c r="H17">
-        <v>1.646727</v>
+        <v>3.706285</v>
       </c>
       <c r="I17">
-        <v>0.03435712039071433</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J17">
-        <v>0.02361631521451321</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>5.748987333333333</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N17">
-        <v>17.246962</v>
+        <v>0.100457</v>
       </c>
       <c r="O17">
-        <v>0.5461548493801388</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P17">
-        <v>0.5471377135049664</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q17">
-        <v>4.733506332229</v>
+        <v>0.06205371204083334</v>
       </c>
       <c r="R17">
-        <v>28.401037993374</v>
+        <v>0.372322272245</v>
       </c>
       <c r="S17">
-        <v>0.01876430791212588</v>
+        <v>0.0002313647872303754</v>
       </c>
       <c r="T17">
-        <v>0.01292137670788131</v>
+        <v>0.0001587143982811515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.310028</v>
+        <v>1.8531425</v>
       </c>
       <c r="H18">
-        <v>0.9300840000000001</v>
+        <v>3.706285</v>
       </c>
       <c r="I18">
-        <v>0.01293677618754339</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J18">
-        <v>0.01333867539669618</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03348566666666667</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N18">
-        <v>0.100457</v>
+        <v>6.980071</v>
       </c>
       <c r="O18">
-        <v>0.00318114446498929</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P18">
-        <v>0.003186869275039187</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q18">
-        <v>0.01038149426533333</v>
+        <v>4.311688741039166</v>
       </c>
       <c r="R18">
-        <v>0.09343344838800002</v>
+        <v>25.870132446235</v>
       </c>
       <c r="S18">
-        <v>4.115375396380891E-05</v>
+        <v>0.01607595928375239</v>
       </c>
       <c r="T18">
-        <v>4.25086147914522E-05</v>
+        <v>0.01102797981947216</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.310028</v>
+        <v>1.8531425</v>
       </c>
       <c r="H19">
-        <v>0.9300840000000001</v>
+        <v>3.706285</v>
       </c>
       <c r="I19">
-        <v>0.01293677618754339</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J19">
-        <v>0.01333867539669618</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.687095</v>
+        <v>0.1031065</v>
       </c>
       <c r="N19">
-        <v>14.061285</v>
+        <v>0.206213</v>
       </c>
       <c r="O19">
-        <v>0.4452748832673376</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P19">
-        <v>0.446076203092561</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q19">
-        <v>1.45313068866</v>
+        <v>0.19107103717625</v>
       </c>
       <c r="R19">
-        <v>13.07817619794</v>
+        <v>0.7642841487049999</v>
       </c>
       <c r="S19">
-        <v>0.005760421506764056</v>
+        <v>0.000712400731693223</v>
       </c>
       <c r="T19">
-        <v>0.005950065675242391</v>
+        <v>0.0003258008124147753</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.310028</v>
+        <v>1.8531425</v>
       </c>
       <c r="H20">
-        <v>0.9300840000000001</v>
+        <v>3.706285</v>
       </c>
       <c r="I20">
-        <v>0.01293677618754339</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J20">
-        <v>0.01333867539669618</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0567275</v>
+        <v>1.297813666666667</v>
       </c>
       <c r="N20">
-        <v>0.113455</v>
+        <v>3.893441</v>
       </c>
       <c r="O20">
-        <v>0.005389122887534366</v>
+        <v>0.1977000888127855</v>
       </c>
       <c r="P20">
-        <v>0.00359921412743334</v>
+        <v>0.1987405979622744</v>
       </c>
       <c r="Q20">
-        <v>0.01758711337</v>
+        <v>2.405033662780833</v>
       </c>
       <c r="R20">
-        <v>0.10552268022</v>
+        <v>14.430201976685</v>
       </c>
       <c r="S20">
-        <v>6.971787664319967E-05</v>
+        <v>0.008967071966702371</v>
       </c>
       <c r="T20">
-        <v>4.800874892903639E-05</v>
+        <v>0.006151339832546908</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.310028</v>
+        <v>1.8531425</v>
       </c>
       <c r="H21">
-        <v>0.9300840000000001</v>
+        <v>3.706285</v>
       </c>
       <c r="I21">
-        <v>0.01293677618754339</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J21">
-        <v>0.01333867539669618</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.748987333333333</v>
+        <v>2.803461666666667</v>
       </c>
       <c r="N21">
-        <v>17.246962</v>
+        <v>8.410385</v>
       </c>
       <c r="O21">
-        <v>0.5461548493801388</v>
+        <v>0.4270602434837766</v>
       </c>
       <c r="P21">
-        <v>0.5471377135049664</v>
+        <v>0.4293078908844241</v>
       </c>
       <c r="Q21">
-        <v>1.782347044978667</v>
+        <v>5.195213961620833</v>
       </c>
       <c r="R21">
-        <v>16.041123404808</v>
+        <v>31.171283769725</v>
       </c>
       <c r="S21">
-        <v>0.007065483050172327</v>
+        <v>0.01937014778512738</v>
       </c>
       <c r="T21">
-        <v>0.007298092357733299</v>
+        <v>0.01328776685136747</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.31211066666667</v>
+        <v>27.259396</v>
       </c>
       <c r="H22">
-        <v>39.936332</v>
+        <v>81.778188</v>
       </c>
       <c r="I22">
-        <v>0.5554846538973116</v>
+        <v>0.6671925731352637</v>
       </c>
       <c r="J22">
-        <v>0.5727415685923962</v>
+        <v>0.6829388198358622</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1807,27 +1807,27 @@
         <v>0.100457</v>
       </c>
       <c r="O22">
-        <v>0.00318114446498929</v>
+        <v>0.005100978240550195</v>
       </c>
       <c r="P22">
-        <v>0.003186869275039187</v>
+        <v>0.005127825039469251</v>
       </c>
       <c r="Q22">
-        <v>0.4457649004137779</v>
+        <v>0.9127990479906667</v>
       </c>
       <c r="R22">
-        <v>4.011884103724</v>
+        <v>8.215191431916001</v>
       </c>
       <c r="S22">
-        <v>0.001767076932131924</v>
+        <v>0.003403334797819675</v>
       </c>
       <c r="T22">
-        <v>0.001825252507484857</v>
+        <v>0.003501990780779914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.31211066666667</v>
+        <v>27.259396</v>
       </c>
       <c r="H23">
-        <v>39.936332</v>
+        <v>81.778188</v>
       </c>
       <c r="I23">
-        <v>0.5554846538973116</v>
+        <v>0.6671925731352637</v>
       </c>
       <c r="J23">
-        <v>0.5727415685923962</v>
+        <v>0.6829388198358622</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.687095</v>
+        <v>2.326690333333333</v>
       </c>
       <c r="N23">
-        <v>14.061285</v>
+        <v>6.980071</v>
       </c>
       <c r="O23">
-        <v>0.4452748832673376</v>
+        <v>0.3544321479687372</v>
       </c>
       <c r="P23">
-        <v>0.446076203092561</v>
+        <v>0.3562975487131128</v>
       </c>
       <c r="Q23">
-        <v>62.39512734518001</v>
+        <v>63.42417316570533</v>
       </c>
       <c r="R23">
-        <v>561.55614610662</v>
+        <v>570.817558491348</v>
       </c>
       <c r="S23">
-        <v>0.2473433644209228</v>
+        <v>0.2364744968051203</v>
       </c>
       <c r="T23">
-        <v>0.2554863842709737</v>
+        <v>0.2433294274285439</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.31211066666667</v>
+        <v>27.259396</v>
       </c>
       <c r="H24">
-        <v>39.936332</v>
+        <v>81.778188</v>
       </c>
       <c r="I24">
-        <v>0.5554846538973116</v>
+        <v>0.6671925731352637</v>
       </c>
       <c r="J24">
-        <v>0.5727415685923962</v>
+        <v>0.6829388198358622</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0567275</v>
+        <v>0.1031065</v>
       </c>
       <c r="N24">
-        <v>0.113455</v>
+        <v>0.206213</v>
       </c>
       <c r="O24">
-        <v>0.005389122887534366</v>
+        <v>0.01570654149415039</v>
       </c>
       <c r="P24">
-        <v>0.00359921412743334</v>
+        <v>0.01052613740071944</v>
       </c>
       <c r="Q24">
-        <v>0.7551627578433334</v>
+        <v>2.810620913674</v>
       </c>
       <c r="R24">
-        <v>4.53097654706</v>
+        <v>16.863725482044</v>
       </c>
       <c r="S24">
-        <v>0.002993575061992108</v>
+        <v>0.01047928783453799</v>
       </c>
       <c r="T24">
-        <v>0.002061419545046084</v>
+        <v>0.007188707853877463</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.259396</v>
+      </c>
+      <c r="H25">
+        <v>81.778188</v>
+      </c>
+      <c r="I25">
+        <v>0.6671925731352637</v>
+      </c>
+      <c r="J25">
+        <v>0.6829388198358622</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.893441</v>
+      </c>
+      <c r="O25">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="P25">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="Q25">
+        <v>35.37761667387866</v>
+      </c>
+      <c r="R25">
+        <v>318.398550064908</v>
+      </c>
+      <c r="S25">
+        <v>0.1319040309640725</v>
+      </c>
+      <c r="T25">
+        <v>0.1357276694258292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.259396</v>
+      </c>
+      <c r="H26">
+        <v>81.778188</v>
+      </c>
+      <c r="I26">
+        <v>0.6671925731352637</v>
+      </c>
+      <c r="J26">
+        <v>0.6829388198358622</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="N26">
+        <v>8.410385</v>
+      </c>
+      <c r="O26">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="P26">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="Q26">
+        <v>76.42067174248666</v>
+      </c>
+      <c r="R26">
+        <v>687.7860456823799</v>
+      </c>
+      <c r="S26">
+        <v>0.2849314227337132</v>
+      </c>
+      <c r="T26">
+        <v>0.2931910243468318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>13.31211066666667</v>
-      </c>
-      <c r="H25">
-        <v>39.936332</v>
-      </c>
-      <c r="I25">
-        <v>0.5554846538973116</v>
-      </c>
-      <c r="J25">
-        <v>0.5727415685923962</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.748987333333333</v>
-      </c>
-      <c r="N25">
-        <v>17.246962</v>
-      </c>
-      <c r="O25">
-        <v>0.5461548493801388</v>
-      </c>
-      <c r="P25">
-        <v>0.5471377135049664</v>
-      </c>
-      <c r="Q25">
-        <v>76.53115560259822</v>
-      </c>
-      <c r="R25">
-        <v>688.780400423384</v>
-      </c>
-      <c r="S25">
-        <v>0.3033806374822647</v>
-      </c>
-      <c r="T25">
-        <v>0.3133685122688916</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.659269</v>
+      </c>
+      <c r="H27">
+        <v>7.977807</v>
+      </c>
+      <c r="I27">
+        <v>0.06508744826073327</v>
+      </c>
+      <c r="J27">
+        <v>0.06662356100942565</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03348566666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.100457</v>
+      </c>
+      <c r="O27">
+        <v>0.005100978240550195</v>
+      </c>
+      <c r="P27">
+        <v>0.005127825039469251</v>
+      </c>
+      <c r="Q27">
+        <v>0.08904739531100002</v>
+      </c>
+      <c r="R27">
+        <v>0.8014265577990001</v>
+      </c>
+      <c r="S27">
+        <v>0.0003320096573109371</v>
+      </c>
+      <c r="T27">
+        <v>0.0003416339643627401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.659269</v>
+      </c>
+      <c r="H28">
+        <v>7.977807</v>
+      </c>
+      <c r="I28">
+        <v>0.06508744826073327</v>
+      </c>
+      <c r="J28">
+        <v>0.06662356100942565</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.326690333333333</v>
+      </c>
+      <c r="N28">
+        <v>6.980071</v>
+      </c>
+      <c r="O28">
+        <v>0.3544321479687372</v>
+      </c>
+      <c r="P28">
+        <v>0.3562975487131128</v>
+      </c>
+      <c r="Q28">
+        <v>6.187295476032999</v>
+      </c>
+      <c r="R28">
+        <v>55.685659284297</v>
+      </c>
+      <c r="S28">
+        <v>0.02306908409285574</v>
+      </c>
+      <c r="T28">
+        <v>0.02373781147419688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.659269</v>
+      </c>
+      <c r="H29">
+        <v>7.977807</v>
+      </c>
+      <c r="I29">
+        <v>0.06508744826073327</v>
+      </c>
+      <c r="J29">
+        <v>0.06662356100942565</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.1031065</v>
+      </c>
+      <c r="N29">
+        <v>0.206213</v>
+      </c>
+      <c r="O29">
+        <v>0.01570654149415039</v>
+      </c>
+      <c r="P29">
+        <v>0.01052613740071944</v>
+      </c>
+      <c r="Q29">
+        <v>0.2741879191485</v>
+      </c>
+      <c r="R29">
+        <v>1.645127514891</v>
+      </c>
+      <c r="S29">
+        <v>0.001022298706855574</v>
+      </c>
+      <c r="T29">
+        <v>0.0007012887573104286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.659269</v>
+      </c>
+      <c r="H30">
+        <v>7.977807</v>
+      </c>
+      <c r="I30">
+        <v>0.06508744826073327</v>
+      </c>
+      <c r="J30">
+        <v>0.06662356100942565</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.297813666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.893441</v>
+      </c>
+      <c r="O30">
+        <v>0.1977000888127855</v>
+      </c>
+      <c r="P30">
+        <v>0.1987405979622744</v>
+      </c>
+      <c r="Q30">
+        <v>3.451235651543</v>
+      </c>
+      <c r="R30">
+        <v>31.061120863887</v>
+      </c>
+      <c r="S30">
+        <v>0.01286779430174455</v>
+      </c>
+      <c r="T30">
+        <v>0.01324080635338932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.659269</v>
+      </c>
+      <c r="H31">
+        <v>7.977807</v>
+      </c>
+      <c r="I31">
+        <v>0.06508744826073327</v>
+      </c>
+      <c r="J31">
+        <v>0.06662356100942565</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.803461666666667</v>
+      </c>
+      <c r="N31">
+        <v>8.410385</v>
+      </c>
+      <c r="O31">
+        <v>0.4270602434837766</v>
+      </c>
+      <c r="P31">
+        <v>0.4293078908844241</v>
+      </c>
+      <c r="Q31">
+        <v>7.455158702855001</v>
+      </c>
+      <c r="R31">
+        <v>67.096428325695</v>
+      </c>
+      <c r="S31">
+        <v>0.02779626150196647</v>
+      </c>
+      <c r="T31">
+        <v>0.02860202046016628</v>
       </c>
     </row>
   </sheetData>
